--- a/stock_historical_data/1wk/GODFRYPHLP.NS.xlsx
+++ b/stock_historical_data/1wk/GODFRYPHLP.NS.xlsx
@@ -70851,7 +70851,9 @@
       <c r="P1328" t="n">
         <v>0</v>
       </c>
-      <c r="Q1328" t="inlineStr"/>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GODFRYPHLP.NS.xlsx
+++ b/stock_historical_data/1wk/GODFRYPHLP.NS.xlsx
@@ -74893,7 +74893,9 @@
       <c r="Q1329" t="n">
         <v>0</v>
       </c>
-      <c r="R1329" t="inlineStr"/>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GODFRYPHLP.NS.xlsx
+++ b/stock_historical_data/1wk/GODFRYPHLP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1329"/>
+  <dimension ref="A1:R1331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -74896,6 +74896,114 @@
       <c r="R1329" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>4093.35009765625</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>4424.9501953125</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>4072.199951171875</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>4264.75</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>4264.75</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>639808</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>4260</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>4490</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>4114</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>4124.5</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>4124.5</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>461862</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GODFRYPHLP.NS.xlsx
+++ b/stock_historical_data/1wk/GODFRYPHLP.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1331"/>
+  <dimension ref="A1:R1366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -74949,7 +74949,9 @@
       <c r="Q1330" t="n">
         <v>0</v>
       </c>
-      <c r="R1330" t="inlineStr"/>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" s="2" t="n">
@@ -75003,7 +75005,1829 @@
       <c r="Q1331" t="n">
         <v>0</v>
       </c>
-      <c r="R1331" t="inlineStr"/>
+      <c r="R1331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>4120.168457365513</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>4378.509367447549</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>4085.67398711345</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>4264.44580078125</v>
+      </c>
+      <c r="F1332" t="inlineStr"/>
+      <c r="G1332" t="n">
+        <v>359261</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>4281.078003803373</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>4349.968914209404</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>3887.464914473684</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>3992.81884765625</v>
+      </c>
+      <c r="F1333" t="inlineStr"/>
+      <c r="G1333" t="n">
+        <v>286804</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>4035.039274015197</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>4744.910747247771</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>4035.039274015197</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>4141.7216796875</v>
+      </c>
+      <c r="F1334" t="inlineStr"/>
+      <c r="G1334" t="n">
+        <v>3565646</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>4133.454884923571</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>4532.0380345412</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>3989.030002932491</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>4234.3798828125</v>
+      </c>
+      <c r="F1335" t="inlineStr"/>
+      <c r="G1335" t="n">
+        <v>1439887</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>4234.379698243122</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>4408.919840039715</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>4099.009248880396</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>4116.87158203125</v>
+      </c>
+      <c r="F1336" t="inlineStr"/>
+      <c r="G1336" t="n">
+        <v>556844</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>4057.034912176702</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>4384.857317704366</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>3902.669972980605</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>4359.859375</v>
+      </c>
+      <c r="F1337" t="inlineStr"/>
+      <c r="G1337" t="n">
+        <v>609961</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>4359.810234021883</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>4555.657240019706</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>4231.820963274906</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>4463.638671875</v>
+      </c>
+      <c r="F1338" t="inlineStr"/>
+      <c r="G1338" t="n">
+        <v>543423</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>4463.639219060932</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>5895.094018779623</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>4448.384802150901</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>5316.7548828125</v>
+      </c>
+      <c r="F1339" t="inlineStr"/>
+      <c r="G1339" t="n">
+        <v>3763013</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>5447.550556927507</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>6530.857611666655</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>5418.524328949001</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>6469.62451171875</v>
+      </c>
+      <c r="F1340" t="inlineStr"/>
+      <c r="G1340" t="n">
+        <v>1719623</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>6510.976727825516</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>7276.38925918821</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>6247.804042529057</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>7162.91943359375</v>
+      </c>
+      <c r="F1341" t="inlineStr"/>
+      <c r="G1341" t="n">
+        <v>1936064</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>7072.6109543894</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>7386.678812774313</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>6549.098674917226</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>7273.20849609375</v>
+      </c>
+      <c r="F1342" t="inlineStr"/>
+      <c r="G1342" t="n">
+        <v>1320229</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>7412.523844177151</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>8429.478614210862</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>7355.912941646272</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>7552.88232421875</v>
+      </c>
+      <c r="F1343" t="inlineStr"/>
+      <c r="G1343" t="n">
+        <v>2349453</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>7256.508684129773</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>7576.938311934246</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>6928.822741790053</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>6956.357421875</v>
+      </c>
+      <c r="F1344" t="inlineStr"/>
+      <c r="G1344" t="n">
+        <v>481241</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>6917.589543320929</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>6983.146824024168</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>6373.301902096933</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>6587.91552734375</v>
+      </c>
+      <c r="F1345" t="inlineStr"/>
+      <c r="G1345" t="n">
+        <v>327532</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>6582.001463836952</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>7187.91974282286</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>6225.338801748623</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>6964.01171875</v>
+      </c>
+      <c r="F1346" t="inlineStr"/>
+      <c r="G1346" t="n">
+        <v>419003</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>6969.379547218012</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>7106.259365539689</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>6670.023806822329</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>6716.197265625</v>
+      </c>
+      <c r="F1347" t="inlineStr"/>
+      <c r="G1347" t="n">
+        <v>195181</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>6715.749779237533</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>6908.593985450097</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>6052.823066398786</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>6263.3115234375</v>
+      </c>
+      <c r="F1348" t="inlineStr"/>
+      <c r="G1348" t="n">
+        <v>350689</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>6263.261430509631</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>6721.713926158723</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>6146.511455446748</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>6660.1328125</v>
+      </c>
+      <c r="F1349" t="inlineStr"/>
+      <c r="G1349" t="n">
+        <v>149590</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>6681.952007511761</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>7195.672848394434</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>6462.268670162744</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>6655.8583984375</v>
+      </c>
+      <c r="F1350" t="inlineStr"/>
+      <c r="G1350" t="n">
+        <v>260267</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>6560.678914237432</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>7366.747685580437</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>6054.711404033364</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>6078.1708984375</v>
+      </c>
+      <c r="F1351" t="inlineStr"/>
+      <c r="G1351" t="n">
+        <v>454277</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>5929.511489946653</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>6146.063689749519</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>5568.177134464516</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>5592.6806640625</v>
+      </c>
+      <c r="F1352" t="inlineStr"/>
+      <c r="G1352" t="n">
+        <v>197961</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>5735.624169704967</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>5949.194258609761</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>5581.547610553447</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>5639.35107421875</v>
+      </c>
+      <c r="F1353" t="inlineStr"/>
+      <c r="G1353" t="n">
+        <v>172911</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>5673</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>5815</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>5570</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>5594.4501953125</v>
+      </c>
+      <c r="F1354" t="inlineStr"/>
+      <c r="G1354" t="n">
+        <v>237443</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>5595.0498046875</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>6125</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>5575</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>6051.4501953125</v>
+      </c>
+      <c r="F1355" t="inlineStr"/>
+      <c r="G1355" t="n">
+        <v>266705</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>6116</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>6183.5498046875</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>5252</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>5323.7001953125</v>
+      </c>
+      <c r="F1356" t="inlineStr"/>
+      <c r="G1356" t="n">
+        <v>233801</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>5419.25</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>5665</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>5265.2001953125</v>
+      </c>
+      <c r="F1357" t="inlineStr"/>
+      <c r="G1357" t="n">
+        <v>609617</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>5265.14990234375</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>5320</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>4712.35009765625</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>5105.89990234375</v>
+      </c>
+      <c r="F1358" t="inlineStr"/>
+      <c r="G1358" t="n">
+        <v>1006768</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>5157.4501953125</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>5157.4501953125</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>4642.25</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>4777.64990234375</v>
+      </c>
+      <c r="F1359" t="inlineStr"/>
+      <c r="G1359" t="n">
+        <v>210753</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>4739.39990234375</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>4739.39990234375</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>4338</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>4383.7998046875</v>
+      </c>
+      <c r="F1360" t="inlineStr"/>
+      <c r="G1360" t="n">
+        <v>242980</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>4385</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>4540</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>4141.39990234375</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>4346.35009765625</v>
+      </c>
+      <c r="F1361" t="inlineStr"/>
+      <c r="G1361" t="n">
+        <v>238554</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>4346</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>4581.4501953125</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>4112.4501953125</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>4517.39990234375</v>
+      </c>
+      <c r="F1362" t="inlineStr"/>
+      <c r="G1362" t="n">
+        <v>188269</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>4884.89990234375</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>5519.2998046875</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>4522.35009765625</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>5470.4501953125</v>
+      </c>
+      <c r="F1363" t="inlineStr"/>
+      <c r="G1363" t="n">
+        <v>2549428</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>5420</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>5999.5</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>4835.5498046875</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>5999.5</v>
+      </c>
+      <c r="F1364" t="inlineStr"/>
+      <c r="G1364" t="n">
+        <v>6162914</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>5850</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>7741.7998046875</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>5555.25</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>5786.35009765625</v>
+      </c>
+      <c r="F1365" t="inlineStr"/>
+      <c r="G1365" t="n">
+        <v>9330778</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>5780</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>5944.7998046875</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>5116.5498046875</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>5189.39990234375</v>
+      </c>
+      <c r="F1366" t="inlineStr"/>
+      <c r="G1366" t="n">
+        <v>2167778</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GODFRYPHLP.NS.xlsx
+++ b/stock_historical_data/1wk/GODFRYPHLP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1366"/>
+  <dimension ref="A1:R1370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75059,7 +75059,9 @@
       <c r="Q1332" t="n">
         <v>0</v>
       </c>
-      <c r="R1332" t="inlineStr"/>
+      <c r="R1332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" s="2" t="n">
@@ -75111,7 +75113,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" s="2" t="n">
@@ -75163,7 +75167,9 @@
       <c r="Q1334" t="n">
         <v>0</v>
       </c>
-      <c r="R1334" t="inlineStr"/>
+      <c r="R1334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" s="2" t="n">
@@ -75215,7 +75221,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="2" t="n">
@@ -75267,7 +75275,9 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" s="2" t="n">
@@ -75319,7 +75329,9 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" s="2" t="n">
@@ -75371,7 +75383,9 @@
       <c r="Q1338" t="n">
         <v>0</v>
       </c>
-      <c r="R1338" t="inlineStr"/>
+      <c r="R1338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" s="2" t="n">
@@ -75423,7 +75437,9 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" s="2" t="n">
@@ -75475,7 +75491,9 @@
       <c r="Q1340" t="n">
         <v>0</v>
       </c>
-      <c r="R1340" t="inlineStr"/>
+      <c r="R1340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" s="2" t="n">
@@ -75527,7 +75545,9 @@
       <c r="Q1341" t="n">
         <v>0</v>
       </c>
-      <c r="R1341" t="inlineStr"/>
+      <c r="R1341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" s="2" t="n">
@@ -75579,7 +75599,9 @@
       <c r="Q1342" t="n">
         <v>0</v>
       </c>
-      <c r="R1342" t="inlineStr"/>
+      <c r="R1342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" s="2" t="n">
@@ -75631,7 +75653,9 @@
       <c r="Q1343" t="n">
         <v>0</v>
       </c>
-      <c r="R1343" t="inlineStr"/>
+      <c r="R1343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" s="2" t="n">
@@ -75683,7 +75707,9 @@
       <c r="Q1344" t="n">
         <v>0</v>
       </c>
-      <c r="R1344" t="inlineStr"/>
+      <c r="R1344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" s="2" t="n">
@@ -75735,7 +75761,9 @@
       <c r="Q1345" t="n">
         <v>0</v>
       </c>
-      <c r="R1345" t="inlineStr"/>
+      <c r="R1345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" s="2" t="n">
@@ -75787,7 +75815,9 @@
       <c r="Q1346" t="n">
         <v>0</v>
       </c>
-      <c r="R1346" t="inlineStr"/>
+      <c r="R1346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" s="2" t="n">
@@ -75839,7 +75869,9 @@
       <c r="Q1347" t="n">
         <v>0</v>
       </c>
-      <c r="R1347" t="inlineStr"/>
+      <c r="R1347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" s="2" t="n">
@@ -75891,7 +75923,9 @@
       <c r="Q1348" t="n">
         <v>0</v>
       </c>
-      <c r="R1348" t="inlineStr"/>
+      <c r="R1348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" s="2" t="n">
@@ -75943,7 +75977,9 @@
       <c r="Q1349" t="n">
         <v>2</v>
       </c>
-      <c r="R1349" t="inlineStr"/>
+      <c r="R1349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" s="2" t="n">
@@ -75995,7 +76031,9 @@
       <c r="Q1350" t="n">
         <v>0</v>
       </c>
-      <c r="R1350" t="inlineStr"/>
+      <c r="R1350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1351">
       <c r="A1351" s="2" t="n">
@@ -76047,7 +76085,9 @@
       <c r="Q1351" t="n">
         <v>0</v>
       </c>
-      <c r="R1351" t="inlineStr"/>
+      <c r="R1351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" s="2" t="n">
@@ -76099,7 +76139,9 @@
       <c r="Q1352" t="n">
         <v>0</v>
       </c>
-      <c r="R1352" t="inlineStr"/>
+      <c r="R1352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1353">
       <c r="A1353" s="2" t="n">
@@ -76151,7 +76193,9 @@
       <c r="Q1353" t="n">
         <v>0</v>
       </c>
-      <c r="R1353" t="inlineStr"/>
+      <c r="R1353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1354">
       <c r="A1354" s="2" t="n">
@@ -76203,7 +76247,9 @@
       <c r="Q1354" t="n">
         <v>0</v>
       </c>
-      <c r="R1354" t="inlineStr"/>
+      <c r="R1354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1355">
       <c r="A1355" s="2" t="n">
@@ -76255,7 +76301,9 @@
       <c r="Q1355" t="n">
         <v>0</v>
       </c>
-      <c r="R1355" t="inlineStr"/>
+      <c r="R1355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1356">
       <c r="A1356" s="2" t="n">
@@ -76307,7 +76355,9 @@
       <c r="Q1356" t="n">
         <v>0</v>
       </c>
-      <c r="R1356" t="inlineStr"/>
+      <c r="R1356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" s="2" t="n">
@@ -76359,7 +76409,9 @@
       <c r="Q1357" t="n">
         <v>2</v>
       </c>
-      <c r="R1357" t="inlineStr"/>
+      <c r="R1357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" s="2" t="n">
@@ -76411,7 +76463,9 @@
       <c r="Q1358" t="n">
         <v>0</v>
       </c>
-      <c r="R1358" t="inlineStr"/>
+      <c r="R1358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1359">
       <c r="A1359" s="2" t="n">
@@ -76463,7 +76517,9 @@
       <c r="Q1359" t="n">
         <v>0</v>
       </c>
-      <c r="R1359" t="inlineStr"/>
+      <c r="R1359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1360">
       <c r="A1360" s="2" t="n">
@@ -76515,7 +76571,9 @@
       <c r="Q1360" t="n">
         <v>0</v>
       </c>
-      <c r="R1360" t="inlineStr"/>
+      <c r="R1360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1361">
       <c r="A1361" s="2" t="n">
@@ -76567,7 +76625,9 @@
       <c r="Q1361" t="n">
         <v>0</v>
       </c>
-      <c r="R1361" t="inlineStr"/>
+      <c r="R1361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" s="2" t="n">
@@ -76611,7 +76671,7 @@
         <v>5</v>
       </c>
       <c r="O1362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1362" t="n">
         <v>0</v>
@@ -76619,7 +76679,9 @@
       <c r="Q1362" t="n">
         <v>0</v>
       </c>
-      <c r="R1362" t="inlineStr"/>
+      <c r="R1362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" s="2" t="n">
@@ -76671,7 +76733,9 @@
       <c r="Q1363" t="n">
         <v>0</v>
       </c>
-      <c r="R1363" t="inlineStr"/>
+      <c r="R1363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" s="2" t="n">
@@ -76723,7 +76787,9 @@
       <c r="Q1364" t="n">
         <v>0</v>
       </c>
-      <c r="R1364" t="inlineStr"/>
+      <c r="R1364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" s="2" t="n">
@@ -76767,7 +76833,7 @@
         <v>8</v>
       </c>
       <c r="O1365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1365" t="n">
         <v>0</v>
@@ -76775,7 +76841,9 @@
       <c r="Q1365" t="n">
         <v>0</v>
       </c>
-      <c r="R1365" t="inlineStr"/>
+      <c r="R1365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" s="2" t="n">
@@ -76827,7 +76895,217 @@
       <c r="Q1366" t="n">
         <v>0</v>
       </c>
-      <c r="R1366" t="inlineStr"/>
+      <c r="R1366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>5200</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>5538.25</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>4952.39990234375</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>5326.35009765625</v>
+      </c>
+      <c r="F1367" t="inlineStr"/>
+      <c r="G1367" t="n">
+        <v>672378</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>5345</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>5708.25</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>5708.25</v>
+      </c>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="n">
+        <v>419955</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>5680</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>6295</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>5575.35009765625</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>6258.89990234375</v>
+      </c>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="n">
+        <v>603317</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>6301.5</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>6788.25</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>6081</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>6769.2001953125</v>
+      </c>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="n">
+        <v>328593</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
